--- a/data/trans_camb/P43-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Dificultad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.128242140809239</v>
+        <v>1.481816070867378</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.964529659902488</v>
+        <v>3.813214464338476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.70269242806414</v>
+        <v>1.134220561373667</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.74417596517692</v>
+        <v>10.76546083376175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.97141215581961</v>
+        <v>12.63236809705169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.39528139649411</v>
+        <v>11.41025129444126</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05215707779828318</v>
+        <v>0.03393574433760628</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09233881921572809</v>
+        <v>0.08960979918431708</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0418609432682259</v>
+        <v>0.02672852009222615</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2891761073833805</v>
+        <v>0.2888271625896954</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3519418887882109</v>
+        <v>0.3366789971109769</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3070576763252915</v>
+        <v>0.304225171138873</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>14.97482291022673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11.52944311672939</v>
+        <v>11.52944311672938</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.807920082631416</v>
+        <v>5.971146688842135</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.40743573552811</v>
+        <v>10.41035468966473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.485015323026796</v>
+        <v>7.068031441222768</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.3672349077673</v>
+        <v>14.73179907946778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.14125872203053</v>
+        <v>18.94044856715208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.95661593728037</v>
+        <v>15.69063961280508</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.4082548071105189</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3143242897715703</v>
+        <v>0.3143242897715701</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1494464417209052</v>
+        <v>0.153945036423371</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2660741016448307</v>
+        <v>0.2676113719188596</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1909127202642588</v>
+        <v>0.1793717409990231</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4166387744861167</v>
+        <v>0.4306862114742462</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5518027639489298</v>
+        <v>0.5565629003430567</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4580725338608147</v>
+        <v>0.4547064122751474</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>14.871201639128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14.28705308302052</v>
+        <v>14.28705308302051</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.932323723817248</v>
+        <v>6.408840000516299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.572865598790022</v>
+        <v>9.963878377494819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.499808910632709</v>
+        <v>9.830119020952436</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.21209449989071</v>
+        <v>15.86855092720499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.35970715132425</v>
+        <v>19.46941145867916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.78282685262137</v>
+        <v>18.96937269245976</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.4091823615401595</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3931094649795055</v>
+        <v>0.3931094649795052</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.175042246924305</v>
+        <v>0.1674491780035998</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2419749308147227</v>
+        <v>0.260839407588584</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.246735478433075</v>
+        <v>0.2570225602279927</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.471610054609196</v>
+        <v>0.4635697461789348</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5664265118261261</v>
+        <v>0.5689617105127392</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5527260838124325</v>
+        <v>0.5561853855794847</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>8.181722452008316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23.36784029667125</v>
+        <v>23.36784029667126</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7896629199863882</v>
+        <v>0.133919283634223</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5547147670149677</v>
+        <v>0.8476041018919463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.13532154069272</v>
+        <v>16.15466269423719</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.93791148799688</v>
+        <v>14.8422102748852</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.75517400307588</v>
+        <v>15.12970320416203</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.72499959905676</v>
+        <v>29.13213592913404</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1988047850224293</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5678069005479224</v>
+        <v>0.5678069005479226</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01689068640758653</v>
+        <v>0.01024583975238036</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.007550887194576784</v>
+        <v>0.01741065977139544</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3523235481004787</v>
+        <v>0.3435538639466089</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3990611224184558</v>
+        <v>0.3973892450236537</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3869410682128862</v>
+        <v>0.4065794866466682</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8186467590197068</v>
+        <v>0.7953565027459853</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.627301201510114</v>
+        <v>6.919055641533308</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.446252943723668</v>
+        <v>9.544346215733206</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11.91514290809283</v>
+        <v>12.09611049255225</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.80880601602463</v>
+        <v>11.553570576982</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.48173663409197</v>
+        <v>14.43302519737606</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.88664358776878</v>
+        <v>16.96180239131241</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1683476458416255</v>
+        <v>0.1754931987628996</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2407422959685734</v>
+        <v>0.2440159096756027</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3024637171487942</v>
+        <v>0.3114723518784064</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.321958939465939</v>
+        <v>0.312991904677471</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3974359551295233</v>
+        <v>0.3973209567908572</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4620068959844179</v>
+        <v>0.4636256878173508</v>
       </c>
     </row>
     <row r="34">
